--- a/public/out.xlsx
+++ b/public/out.xlsx
@@ -15,15 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>Привет 123</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>world!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Предприятие</t>
+  </si>
+  <si>
+    <t>Покупатель</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Продукция</t>
+  </si>
+  <si>
+    <t>Вес, тонн</t>
+  </si>
+  <si>
+    <t>Стоимость, тыс.долл.</t>
   </si>
 </sst>
 </file>
@@ -362,7 +374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,20 +382,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/out.xlsx
+++ b/public/out.xlsx
@@ -15,21 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>data</t>
+    <t>Год</t>
   </si>
   <si>
     <t>Предприятие</t>
   </si>
   <si>
-    <t>Покупатель</t>
-  </si>
-  <si>
-    <t>Страна</t>
-  </si>
-  <si>
-    <t>Продукция</t>
+    <t>Стоимость, тыс.долл.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,7 +370,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,12 +379,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
